--- a/Agents.xlsx
+++ b/Agents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miller\Desktop\MARL\AEMO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953336D2-9821-4D84-9AEF-3983D766842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68F6672-C122-4F1D-B18B-DA45F4960238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Note 2: The DUID of 4 generators not modeled as agents are CG1, CG2, CG3, and CG4. Their capacities are all 181MW.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Capacity (MW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>Natural Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note 2: The first 17 largest thermal generators account for 92.46% of all thermal generation capacity. 4 generators ( CG1, CG2, CG3, and CG4) with capacity 181MW are not dispatched because of abnormally high prices 15892\$/MWh. Therefore, they are not modeled as agents.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,10 +547,10 @@
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>750</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>750</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>750</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>700</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>700</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>700</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>700</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>680</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>680</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>550</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>550</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>550</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,13 +765,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>440</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>752</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
